--- a/bh3/543871717285923926_2021-07-05_15-00-02.xlsx
+++ b/bh3/543871717285923926_2021-07-05_15-00-02.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3906,7 +3906,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6781,7 +6781,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8675,7 +8675,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -11344,7 +11344,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -11755,7 +11755,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -11960,7 +11960,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12984,7 +12984,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14358,7 +14358,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14587,7 +14587,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15227,7 +15227,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16906,7 +16906,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17328,7 +17328,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17395,7 +17395,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -17470,7 +17470,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17967,7 +17967,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18484,7 +18484,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18626,7 +18626,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18847,7 +18847,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -19005,7 +19005,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19072,7 +19072,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19285,7 +19285,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19360,7 +19360,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -19656,7 +19656,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19731,7 +19731,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19869,7 +19869,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20875,7 +20875,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21380,7 +21380,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21514,7 +21514,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21719,7 +21719,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -22086,7 +22086,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -22232,7 +22232,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22663,7 +22663,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22738,7 +22738,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22935,7 +22935,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -23649,7 +23649,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -23728,7 +23728,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23949,7 +23949,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24178,7 +24178,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -24482,7 +24482,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -25506,7 +25506,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -26384,7 +26384,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -26534,7 +26534,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26739,7 +26739,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -27236,7 +27236,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -27678,7 +27678,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27749,7 +27749,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27978,7 +27978,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28346,7 +28346,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -28488,7 +28488,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28642,7 +28642,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -28776,7 +28776,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -29001,7 +29001,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30457,7 +30457,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -30536,7 +30536,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30829,7 +30829,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30979,7 +30979,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -31507,7 +31507,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31677,7 +31677,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31819,7 +31819,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -31894,7 +31894,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -32261,7 +32261,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -32537,7 +32537,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -32612,7 +32612,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32754,7 +32754,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -33331,7 +33331,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -33540,7 +33540,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -33678,7 +33678,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33828,7 +33828,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -33966,7 +33966,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34108,7 +34108,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -34238,7 +34238,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -34459,7 +34459,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -35068,7 +35068,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -35588,7 +35588,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35813,7 +35813,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35884,7 +35884,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -36043,7 +36043,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -36256,7 +36256,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -36478,7 +36478,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -37098,7 +37098,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K502" t="inlineStr">
@@ -37240,7 +37240,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -37303,7 +37303,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -38057,7 +38057,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -38626,7 +38626,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K523" t="inlineStr">
@@ -38977,7 +38977,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -39283,7 +39283,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -39575,7 +39575,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K536" t="inlineStr">
@@ -40011,7 +40011,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K542" t="inlineStr">
@@ -40244,7 +40244,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -40402,7 +40402,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -40477,7 +40477,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">

--- a/bh3/543871717285923926_2021-07-05_15-00-02.xlsx
+++ b/bh3/543871717285923926_2021-07-05_15-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:23:48</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44390.51652777778</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4863723322</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-08 04:21:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44385.18168981482</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -686,10 +698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-07 23:38:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44384.98496527778</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -765,10 +775,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-07 21:33:05</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44384.89797453704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -836,10 +844,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-07 20:03:54</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44384.83604166667</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -903,10 +909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-07 11:03:26</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44384.46071759259</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1001,10 +1005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:51:51</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44384.41100694444</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1080,10 +1082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-07 09:51:47</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44384.41096064815</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1171,10 +1171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-07 06:25:00</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44384.26736111111</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1246,10 +1244,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-07 02:58:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44384.12384259259</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1313,10 +1309,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-07 02:48:20</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44384.11689814815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1380,10 +1374,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-07 02:43:38</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44384.11363425926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1448,10 +1440,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-07 00:00:41</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44384.00047453704</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1527,10 +1517,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:49:08</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44383.9924537037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1594,10 +1582,8 @@
           <t>4856742216</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:40:21</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44383.98635416666</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1674,10 +1660,8 @@
           <t>4856727550</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:38:03</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44383.98475694445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1754,10 +1738,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:37:01</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44383.98403935185</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1821,10 +1803,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-06 23:06:39</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44383.96295138889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1889,10 +1869,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:24:32</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44383.9337037037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1964,10 +1942,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:15:53</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44383.92769675926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2031,10 +2007,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-06 22:02:34</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44383.91844907407</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2106,10 +2080,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:59:26</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44383.91627314815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2181,10 +2153,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:29:05</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44383.89519675926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2256,10 +2226,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-06 21:13:51</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44383.88461805556</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2323,10 +2291,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-06 20:46:19</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44383.86549768518</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2390,10 +2356,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-06 20:09:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44383.83980324074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2465,10 +2429,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:53:44</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44383.82898148148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2528,10 +2490,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:42:24</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44383.82111111111</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2595,10 +2555,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-06 19:05:20</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44383.79537037037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2658,10 +2616,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:41:48</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44383.69569444445</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2725,10 +2681,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:38:26</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44383.69335648148</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2792,10 +2746,8 @@
           <t>4847468627</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:15:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44383.67722222222</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2867,10 +2819,8 @@
           <t>4847468627</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-06 16:14:56</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44383.67703703704</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2942,10 +2892,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:56:03</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44383.66392361111</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3017,10 +2965,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:51:44</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44383.66092592593</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3084,10 +3030,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:43:25</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44383.65515046296</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3147,10 +3091,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:41:33</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44383.65385416667</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3210,10 +3152,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-06 15:15:01</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44383.63542824074</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3273,10 +3213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-06 14:59:16</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44383.62449074074</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3352,10 +3290,8 @@
           <t>4847961855</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-06 14:31:43</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44383.6053587963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3427,10 +3363,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-06 14:21:43</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44383.59841435185</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3494,10 +3428,8 @@
           <t>4852558366</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-06 14:13:30</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44383.59270833333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3565,10 +3497,8 @@
           <t>4852558366</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-06 14:13:05</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44383.59241898148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3640,10 +3570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:55:44</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44383.58037037037</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
@@ -3703,10 +3631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:44:15</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44383.57239583333</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3766,10 +3692,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:40:41</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44383.56991898148</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3833,10 +3757,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:31:35</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44383.56359953704</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3896,10 +3818,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:29:59</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44383.56248842592</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3963,10 +3883,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:28:08</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44383.56120370371</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4026,10 +3944,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:27:08</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44383.56050925926</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4089,10 +4005,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:25:13</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44383.55917824074</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4156,10 +4070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:24:11</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44383.55846064815</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -4235,10 +4147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:23:36</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44383.55805555556</v>
       </c>
       <c r="I54" t="n">
         <v>5</v>
@@ -4314,10 +4224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:23:14</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44383.55780092593</v>
       </c>
       <c r="I55" t="n">
         <v>4</v>
@@ -4395,10 +4303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:14:22</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44383.55164351852</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4470,10 +4376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:13:14</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44383.55085648148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4545,10 +4449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:13:03</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44383.55072916667</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4620,10 +4522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:12:45</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44383.55052083333</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4695,10 +4595,8 @@
           <t>4850522471</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:09:23</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44383.54818287037</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4774,10 +4672,8 @@
           <t>4849847264</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-06 13:07:28</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44383.54685185185</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4880,10 +4776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-06 12:51:43</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44383.53591435185</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4986,10 +4880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-06 12:51:38</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44383.53585648148</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5065,10 +4957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-06 12:51:17</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44383.53561342593</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5144,10 +5034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-06 12:35:50</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44383.52488425926</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5216,10 +5104,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-06 12:07:06</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44383.50493055556</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5283,10 +5169,8 @@
           <t>4852636059</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-06 12:06:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44383.50481481481</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5350,10 +5234,8 @@
           <t>4852597642</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-06 12:02:05</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44383.50144675926</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5413,10 +5295,8 @@
           <t>4852558366</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-06 11:54:51</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44383.49642361111</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5476,10 +5356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-06 11:30:18</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44383.479375</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5551,10 +5429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-06 11:30:06</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44383.47923611111</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5626,10 +5502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-06 11:29:36</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44383.47888888889</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5701,10 +5575,8 @@
           <t>4848377391</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-06 10:45:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44383.44850694444</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5780,10 +5652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-06 10:42:45</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44383.44635416667</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5847,10 +5717,8 @@
           <t>4848377391</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-06 10:22:39</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44383.43239583333</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5945,10 +5813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:56:59</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44383.41457175926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6032,10 +5898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:51:16</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44383.41060185185</v>
       </c>
       <c r="I77" t="n">
         <v>8</v>
@@ -6107,10 +5971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:50:08</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44383.40981481481</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
@@ -6182,10 +6044,8 @@
           <t>4851932149</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:37:30</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44383.40104166666</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6253,10 +6113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:27:22</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44383.39400462963</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6324,10 +6182,8 @@
           <t>4851866140</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:20:33</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44383.38927083334</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6391,10 +6247,8 @@
           <t>4848191853</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:04:55</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44383.37841435185</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6488,10 +6342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-06 09:00:12</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44383.37513888889</v>
       </c>
       <c r="I83" t="n">
         <v>8</v>
@@ -6578,10 +6430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:59:56</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44383.3749537037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6641,10 +6491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:59:46</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44383.37483796296</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6704,10 +6552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:28:02</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44383.35280092592</v>
       </c>
       <c r="I86" t="n">
         <v>5</v>
@@ -6771,10 +6617,8 @@
           <t>4850711679</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:24:49</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44383.35056712963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6850,10 +6694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:20:47</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44383.3477662037</v>
       </c>
       <c r="I88" t="n">
         <v>5</v>
@@ -6926,10 +6768,8 @@
           <t>4851635563</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:05:24</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44383.33708333333</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6989,10 +6829,8 @@
           <t>4851622440</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:02:02</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44383.33474537037</v>
       </c>
       <c r="I90" t="n">
         <v>4</v>
@@ -7068,10 +6906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-06 08:00:37</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44383.33376157407</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -7147,10 +6983,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:40:50</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44383.32002314815</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7249,10 +7083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:26:51</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44383.3103125</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7355,10 +7187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:26:25</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44383.31001157407</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7462,10 +7292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:26:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44383.30993055556</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7541,10 +7369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:25:27</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44383.30934027778</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7620,10 +7446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:14:28</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44383.30171296297</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7691,10 +7515,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:10:59</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44383.29929398148</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7766,10 +7588,8 @@
           <t>4850711679</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-06 07:08:39</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44383.29767361111</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7833,10 +7653,8 @@
           <t>4847961855</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-06 06:59:59</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44383.29165509259</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7900,10 +7718,8 @@
           <t>4850711679</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-06 06:31:33</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44383.27190972222</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7975,10 +7791,8 @@
           <t>4851432224</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-06 06:16:30</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44383.26145833333</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8050,10 +7864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-06 05:55:50</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44383.24710648148</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8121,10 +7933,8 @@
           <t>4851365322</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-06 04:40:21</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44383.1946875</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8192,10 +8002,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-06 04:23:03</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44383.18267361111</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8255,10 +8063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-06 02:18:54</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44383.09645833333</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8334,10 +8140,8 @@
           <t>4849428434</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-06 01:53:51</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44383.0790625</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8401,10 +8205,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-06 01:51:21</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44383.07732638889</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8468,10 +8270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-06 01:43:31</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44383.07188657407</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8535,10 +8335,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-06 01:31:09</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44383.06329861111</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8602,10 +8400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-06 01:29:23</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44383.06207175926</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8665,10 +8461,8 @@
           <t>4851049230</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-06 01:26:48</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44383.06027777777</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8736,10 +8530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:55:46</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44383.03872685185</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8811,10 +8603,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:53:09</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44383.03690972222</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8878,10 +8668,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:52:06</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44383.03618055556</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8945,10 +8733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:48:27</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44383.03364583333</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9018,10 +8804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:46:23</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44383.03221064815</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -9089,10 +8873,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:43:55</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44383.03049768518</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9156,10 +8938,8 @@
           <t>4847468627</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:42:51</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44383.02975694444</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9219,10 +8999,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:41:45</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44383.02899305556</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9286,10 +9064,8 @@
           <t>4850864595</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:40:15</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44383.02795138889</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9353,10 +9129,8 @@
           <t>4850864318</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:40:05</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44383.02783564815</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9420,10 +9194,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:39:04</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44383.02712962963</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9487,10 +9259,8 @@
           <t>4850859629</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:38:25</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44383.02667824074</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9554,10 +9324,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:34:33</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44383.02399305555</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9633,10 +9401,8 @@
           <t>4850829559</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:32:26</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44383.02252314815</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9712,10 +9478,8 @@
           <t>4850824010</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:31:41</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44383.02200231481</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9791,10 +9555,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:31:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44383.02185185185</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9858,10 +9620,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:31:01</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44383.02153935185</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9937,10 +9697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:30:05</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44383.02089120371</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -10004,10 +9762,8 @@
           <t>4850825122</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:29:51</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44383.02072916667</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10083,10 +9839,8 @@
           <t>4850805581</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:26:37</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44383.0184837963</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10162,10 +9916,8 @@
           <t>4850782714</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:22:53</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44383.0158912037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10241,10 +9993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:15:59</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44383.01109953703</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10320,10 +10070,8 @@
           <t>4850711679</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-06 00:10:14</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44383.00710648148</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10395,10 +10143,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:52:55</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44382.99508101852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10462,10 +10208,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:47:56</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44382.99162037037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10533,10 +10277,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:46:58</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44382.99094907408</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10600,10 +10342,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:44:05</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44382.98894675926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10667,10 +10407,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:43:48</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44382.98875</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
@@ -10734,10 +10472,8 @@
           <t>4850541754</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:43:10</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44382.98831018519</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10797,10 +10533,8 @@
           <t>4850529834</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:42:18</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44382.98770833333</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10860,10 +10594,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:42:12</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44382.98763888889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10927,10 +10659,8 @@
           <t>4850525925</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:40:31</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44382.98646990741</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10991,10 +10721,8 @@
           <t>4850522471</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:39:56</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44382.98606481482</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11062,10 +10790,8 @@
           <t>4850516646</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:39:04</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44382.98546296296</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11125,10 +10851,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:38:31</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44382.98508101852</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11192,10 +10916,8 @@
           <t>4850500909</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:36:18</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44382.98354166667</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11255,10 +10977,8 @@
           <t>4850484054</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:35:22</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44382.98289351852</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11334,10 +11054,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:32:13</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44382.98070601852</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11405,10 +11123,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:30:39</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44382.97961805556</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11477,10 +11193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:26:55</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44382.97702546296</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11548,10 +11262,8 @@
           <t>4850349304</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:22:48</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44382.97416666667</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11615,10 +11327,8 @@
           <t>4850349304</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:20:21</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44382.97246527778</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11682,10 +11392,8 @@
           <t>4850349304</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:15:29</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44382.96908564815</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11745,10 +11453,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:14:43</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44382.96855324074</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11812,10 +11518,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:11:57</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44382.96663194444</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11879,10 +11583,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:07:14</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44382.96335648148</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11950,10 +11652,8 @@
           <t>4847468627</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-05 23:02:22</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44382.95997685185</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12025,10 +11725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:56:28</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44382.95587962963</v>
       </c>
       <c r="I160" t="n">
         <v>6</v>
@@ -12096,10 +11794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:45:59</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44382.94859953703</v>
       </c>
       <c r="I161" t="n">
         <v>5</v>
@@ -12163,10 +11859,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:43:35</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44382.94693287037</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12234,10 +11928,8 @@
           <t>4849847264</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:30:33</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44382.93788194445</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12306,10 +11998,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:27:43</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44382.93591435185</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12385,10 +12075,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:16:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44382.92840277778</v>
       </c>
       <c r="I165" t="n">
         <v>3</v>
@@ -12469,10 +12157,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:14:18</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44382.92659722222</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12536,10 +12222,8 @@
           <t>4847853328</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:08:13</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44382.92237268519</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12615,10 +12299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:07:17</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44382.92172453704</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12690,10 +12372,8 @@
           <t>4848498080</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:04:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44382.91969907407</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12765,10 +12445,8 @@
           <t>4849854469</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:03:47</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44382.91929398148</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12836,10 +12514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:02:52</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44382.9186574074</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12903,10 +12579,8 @@
           <t>4849844195</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:02:30</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44382.91840277778</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12974,10 +12648,8 @@
           <t>4849843841</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:02:21</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44382.91829861111</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13049,10 +12721,8 @@
           <t>4849847264</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-05 22:02:11</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44382.91818287037</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13128,10 +12798,8 @@
           <t>4849807875</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:56:36</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44382.91430555555</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13191,10 +12859,8 @@
           <t>4849796369</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:54:17</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44382.91269675926</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13258,10 +12924,8 @@
           <t>4849792057</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:53:58</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44382.91247685185</v>
       </c>
       <c r="I177" t="n">
         <v>2</v>
@@ -13329,10 +12993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:44:20</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44382.90578703704</v>
       </c>
       <c r="I178" t="n">
         <v>11</v>
@@ -13431,10 +13093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:40:58</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44382.90344907407</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13494,10 +13154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:34:51</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44382.89920138889</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13595,10 +13253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:33:11</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44382.89804398148</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13670,10 +13326,8 @@
           <t>4848377391</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:32:41</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44382.89769675926</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13741,10 +13395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:31:25</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44382.89681712963</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13840,10 +13492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:30:59</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44382.89651620371</v>
       </c>
       <c r="I184" t="n">
         <v>9</v>
@@ -13919,10 +13569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:30:47</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44382.89637731481</v>
       </c>
       <c r="I185" t="n">
         <v>5</v>
@@ -14025,10 +13673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:30:24</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44382.89611111111</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14131,10 +13777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:30:18</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44382.89604166667</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14210,10 +13854,8 @@
           <t>4847468627</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:13:48</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44382.88458333333</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14273,10 +13915,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:11:42</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44382.883125</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14348,10 +13988,8 @@
           <t>4849505754</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:08:04</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44382.88060185185</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14423,10 +14061,8 @@
           <t>4849505299</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:07:50</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44382.88043981481</v>
       </c>
       <c r="I191" t="n">
         <v>4</v>
@@ -14502,10 +14138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-05 21:04:10</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44382.87789351852</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14577,10 +14211,8 @@
           <t>4849428434</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:57:45</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44382.8734375</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14652,10 +14284,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:55:00</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44382.87152777778</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14728,10 +14358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:50:34</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44382.86844907407</v>
       </c>
       <c r="I195" t="n">
         <v>4</v>
@@ -14807,10 +14435,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:49:01</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44382.86737268518</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14905,10 +14531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:48:56</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44382.86731481482</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14984,10 +14608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:48:40</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44382.86712962963</v>
       </c>
       <c r="I198" t="n">
         <v>3</v>
@@ -15063,10 +14685,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:39:51</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44382.86100694445</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15138,10 +14758,8 @@
           <t>4849304536</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:37:31</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44382.85938657408</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15217,10 +14835,8 @@
           <t>4847806898</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:36:45</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44382.85885416667</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15296,10 +14912,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:34:38</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44382.85738425926</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15367,10 +14981,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:32:01</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44382.85556712963</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15438,10 +15050,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:29:29</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44382.85380787037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15513,10 +15123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:15:51</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44382.84434027778</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15576,10 +15184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:15:47</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44382.84429398148</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15639,10 +15245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:15:23</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44382.8440162037</v>
       </c>
       <c r="I207" t="n">
         <v>4</v>
@@ -15702,10 +15306,8 @@
           <t>4847468627</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:15:03</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44382.84378472222</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15777,10 +15379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:13:47</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44382.84290509259</v>
       </c>
       <c r="I209" t="n">
         <v>5</v>
@@ -15842,10 +15442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:13:21</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44382.84260416667</v>
       </c>
       <c r="I210" t="n">
         <v>7</v>
@@ -15932,10 +15530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:13:15</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44382.84253472222</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15995,10 +15591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:08:34</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44382.83928240741</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16071,10 +15665,8 @@
           <t>4849122352</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:07:55</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44382.83883101852</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16138,10 +15730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:07:14</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44382.83835648148</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16209,10 +15799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-05 20:00:02</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44382.83335648148</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16280,10 +15868,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:43:19</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44382.82174768519</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16359,10 +15945,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:42:28</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44382.82115740741</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16426,10 +16010,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:41:41</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44382.82061342592</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16493,10 +16075,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:41:06</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44382.82020833333</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16565,10 +16145,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:36:22</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44382.8169212963</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16628,10 +16206,8 @@
           <t>4848909762</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:35:25</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44382.81626157407</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16691,10 +16267,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:33:24</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44382.81486111111</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16758,10 +16332,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:28:16</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44382.8112962963</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16825,10 +16397,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:27:30</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44382.81076388889</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16896,10 +16466,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:24:45</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44382.80885416667</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16959,10 +16527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:24:24</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44382.80861111111</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -17030,10 +16596,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:23:25</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44382.80792824074</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17109,10 +16673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:23:06</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44382.80770833333</v>
       </c>
       <c r="I228" t="n">
         <v>6</v>
@@ -17176,10 +16738,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:23:05</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44382.80769675926</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17247,10 +16807,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:20:46</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44382.80608796296</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17318,10 +16876,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:19:16</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44382.80504629629</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17385,10 +16941,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:14:20</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44382.80162037037</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17460,10 +17014,8 @@
           <t>4848780265</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:13:43</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44382.80119212963</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17531,10 +17083,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:10:10</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44382.79872685186</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17598,10 +17148,8 @@
           <t>4848747495</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:08:53</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44382.79783564815</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17669,10 +17217,8 @@
           <t>4848289090</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-05 19:08:11</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44382.79734953704</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17740,10 +17286,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:58:14</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44382.79043981482</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17811,10 +17355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:57:11</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44382.78971064815</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17882,10 +17424,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:55:15</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44382.78836805555</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17957,10 +17497,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:54:49</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44382.78806712963</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18028,10 +17566,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:54:35</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44382.78790509259</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -18099,10 +17635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:51:25</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44382.78570601852</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18174,10 +17708,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:50:19</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44382.78494212963</v>
       </c>
       <c r="I243" t="n">
         <v>2</v>
@@ -18249,10 +17781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:45:19</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44382.78146990741</v>
       </c>
       <c r="I244" t="n">
         <v>10</v>
@@ -18328,10 +17858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:41:23</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44382.77873842593</v>
       </c>
       <c r="I245" t="n">
         <v>6</v>
@@ -18399,10 +17927,8 @@
           <t>4848567574</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:40:39</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44382.77822916667</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18474,10 +18000,8 @@
           <t>4848575193</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:40:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44382.77795138889</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18545,10 +18069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:39:58</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44382.77775462963</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18616,10 +18138,8 @@
           <t>4848558114</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:38:47</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44382.77693287037</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18687,10 +18207,8 @@
           <t>4848537700</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:36:14</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44382.77516203704</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18766,10 +18284,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:35:33</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44382.7746875</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18837,10 +18353,8 @@
           <t>4848061879</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:34:17</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44382.77380787037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18916,10 +18430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:30:17</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44382.77103009259</v>
       </c>
       <c r="I253" t="n">
         <v>2</v>
@@ -18995,10 +18507,8 @@
           <t>4848498080</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:29:27</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44382.77045138889</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19062,10 +18572,8 @@
           <t>4848061879</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:28:44</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44382.7699537037</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19141,10 +18649,8 @@
           <t>4848496135</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:28:28</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44382.76976851852</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19208,10 +18714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:26:34</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44382.76844907407</v>
       </c>
       <c r="I257" t="n">
         <v>21</v>
@@ -19275,10 +18779,8 @@
           <t>4848396641</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:24:53</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44382.76728009259</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19350,10 +18852,8 @@
           <t>4848455158</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:21:08</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44382.76467592592</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19421,10 +18921,8 @@
           <t>4848440006</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:18:38</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44382.76293981481</v>
       </c>
       <c r="I260" t="n">
         <v>7</v>
@@ -19492,10 +18990,8 @@
           <t>4848191853</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:17:22</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44382.76206018519</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19571,10 +19067,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:16:26</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44382.76141203703</v>
       </c>
       <c r="I262" t="n">
         <v>5</v>
@@ -19646,10 +19140,8 @@
           <t>4847918449</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:15:26</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44382.7607175926</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19721,10 +19213,8 @@
           <t>4847642137</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:14:02</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44382.75974537037</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19792,10 +19282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:13:16</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44382.75921296296</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19859,10 +19347,8 @@
           <t>4848396641</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:12:11</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44382.75846064815</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19930,10 +19416,8 @@
           <t>4847961855</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:11:28</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44382.75796296296</v>
       </c>
       <c r="I267" t="n">
         <v>11</v>
@@ -20005,10 +19489,8 @@
           <t>4848381757</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:09:32</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44382.75662037037</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -20076,10 +19558,8 @@
           <t>4848377391</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:09:13</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44382.75640046296</v>
       </c>
       <c r="I269" t="n">
         <v>9</v>
@@ -20151,10 +19631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:07:34</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44382.75525462963</v>
       </c>
       <c r="I270" t="n">
         <v>54</v>
@@ -20218,10 +19696,8 @@
           <t>4848191853</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:06:15</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44382.75434027778</v>
       </c>
       <c r="I271" t="n">
         <v>7</v>
@@ -20289,10 +19765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:05:35</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44382.75387731481</v>
       </c>
       <c r="I272" t="n">
         <v>18</v>
@@ -20356,10 +19830,8 @@
           <t>4847918449</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:00:41</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44382.75047453704</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20419,10 +19891,8 @@
           <t>4848070858</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-05 18:00:14</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44382.75016203704</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20498,10 +19968,8 @@
           <t>4848270454</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:59:59</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44382.74998842592</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20565,10 +20033,8 @@
           <t>4848314720</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:59:30</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44382.74965277778</v>
       </c>
       <c r="I276" t="n">
         <v>10</v>
@@ -20636,10 +20102,8 @@
           <t>4848070858</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:57:46</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44382.74844907408</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20715,10 +20179,8 @@
           <t>4848270454</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:57:06</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44382.74798611111</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20786,10 +20248,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:55:41</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44382.74700231481</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20865,10 +20325,8 @@
           <t>4848191853</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:55:23</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44382.74679398148</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20932,10 +20390,8 @@
           <t>4848289090</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:55:01</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44382.74653935185</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21003,10 +20459,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:54:08</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44382.74592592593</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21078,10 +20532,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:53:45</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44382.74565972222</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21149,10 +20601,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:53:10</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44382.74525462963</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21228,10 +20678,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:52:34</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44382.74483796296</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21303,10 +20751,8 @@
           <t>4848270454</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:50:16</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44382.74324074074</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21370,10 +20816,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:50:14</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44382.74321759259</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21437,10 +20881,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:50:04</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44382.74310185185</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21504,10 +20946,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:49:57</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44382.74302083333</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21571,10 +21011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:49:34</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44382.74275462963</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21642,10 +21080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:48:59</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44382.74234953704</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21709,10 +21145,8 @@
           <t>4847918449</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:48:46</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44382.74219907408</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21784,10 +21218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:47:44</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44382.74148148148</v>
       </c>
       <c r="I293" t="n">
         <v>7</v>
@@ -21851,10 +21283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:46:29</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44382.74061342593</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21922,10 +21352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:46:22</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44382.74053240741</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21997,10 +21425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:46:14</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44382.74043981481</v>
       </c>
       <c r="I296" t="n">
         <v>8</v>
@@ -22076,10 +21502,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:45:39</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44382.74003472222</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22155,10 +21579,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:44:47</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44382.73943287037</v>
       </c>
       <c r="I298" t="n">
         <v>3</v>
@@ -22222,10 +21644,8 @@
           <t>4848232317</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:44:28</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44382.73921296297</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22289,10 +21709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:42:25</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44382.73778935185</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22352,10 +21770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:40:36</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44382.73652777778</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22419,10 +21835,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:40:25</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44382.73640046296</v>
       </c>
       <c r="I302" t="n">
         <v>7</v>
@@ -22503,10 +21917,8 @@
           <t>4847864003</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:38:32</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44382.73509259259</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22578,10 +21990,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:38:31</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44382.73508101852</v>
       </c>
       <c r="I304" t="n">
         <v>4</v>
@@ -22653,10 +22063,8 @@
           <t>4848200245</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:38:05</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44382.73478009259</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22728,10 +22136,8 @@
           <t>4848175036</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:37:32</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44382.73439814815</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22795,10 +22201,8 @@
           <t>4847918449</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:37:28</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44382.73435185185</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22858,10 +22262,8 @@
           <t>4848192357</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:37:27</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44382.73434027778</v>
       </c>
       <c r="I308" t="n">
         <v>7</v>
@@ -22925,10 +22327,8 @@
           <t>4848191853</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:37:10</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44382.73414351852</v>
       </c>
       <c r="I309" t="n">
         <v>3</v>
@@ -22996,10 +22396,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:37:10</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44382.73414351852</v>
       </c>
       <c r="I310" t="n">
         <v>3</v>
@@ -23067,10 +22465,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:36:59</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44382.73401620371</v>
       </c>
       <c r="I311" t="n">
         <v>6</v>
@@ -23134,10 +22530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:35:24</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44382.73291666667</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23209,10 +22603,8 @@
           <t>4848178269</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:35:06</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44382.73270833334</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23284,10 +22676,8 @@
           <t>4848175036</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:33:15</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44382.73142361111</v>
       </c>
       <c r="I314" t="n">
         <v>9</v>
@@ -23351,10 +22741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:30:41</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44382.7296412037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23430,10 +22818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:29:57</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44382.72913194444</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23497,10 +22883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:26:20</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44382.72662037037</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -23564,10 +22948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:24:47</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44382.72554398148</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23639,10 +23021,8 @@
           <t>4848119771</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:24:37</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44382.72542824074</v>
       </c>
       <c r="I319" t="n">
         <v>5</v>
@@ -23718,10 +23098,8 @@
           <t>4848118708</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:24:01</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44382.72501157408</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23785,10 +23163,8 @@
           <t>4847961855</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:23:42</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44382.72479166667</v>
       </c>
       <c r="I321" t="n">
         <v>11</v>
@@ -23864,10 +23240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:22:46</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44382.72414351852</v>
       </c>
       <c r="I322" t="n">
         <v>6</v>
@@ -23939,10 +23313,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:21:00</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44382.72291666667</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24018,10 +23390,8 @@
           <t>4847918449</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:20:20</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44382.7224537037</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24089,10 +23459,8 @@
           <t>4847961855</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:19:45</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44382.72204861111</v>
       </c>
       <c r="I325" t="n">
         <v>16</v>
@@ -24168,10 +23536,8 @@
           <t>4847742664</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:18:04</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44382.72087962963</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24235,10 +23601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:17:15</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44382.7203125</v>
       </c>
       <c r="I327" t="n">
         <v>22</v>
@@ -24314,10 +23678,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:16:14</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44382.71960648148</v>
       </c>
       <c r="I328" t="n">
         <v>3</v>
@@ -24393,10 +23755,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:15:44</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44382.71925925926</v>
       </c>
       <c r="I329" t="n">
         <v>2</v>
@@ -24472,10 +23832,8 @@
           <t>4848064377</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:15:09</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44382.71885416667</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24551,10 +23909,8 @@
           <t>4848062833</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:14:14</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44382.71821759259</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24623,10 +23979,8 @@
           <t>4848070858</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:14:00</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44382.71805555555</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24702,10 +24056,8 @@
           <t>4848061879</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:13:40</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44382.71782407408</v>
       </c>
       <c r="I333" t="n">
         <v>5</v>
@@ -24781,10 +24133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:11:29</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44382.71630787037</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24860,10 +24210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:11:00</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44382.71597222222</v>
       </c>
       <c r="I335" t="n">
         <v>44</v>
@@ -24932,10 +24280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:10:39</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44382.71572916667</v>
       </c>
       <c r="I336" t="n">
         <v>2</v>
@@ -25003,10 +24349,8 @@
           <t>4848045043</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:09:36</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44382.715</v>
       </c>
       <c r="I337" t="n">
         <v>2</v>
@@ -25066,10 +24410,8 @@
           <t>4848038399</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:09:14</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44382.71474537037</v>
       </c>
       <c r="I338" t="n">
         <v>7</v>
@@ -25133,10 +24475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:09:05</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44382.7146412037</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25212,10 +24552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:06:10</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44382.71261574074</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25275,10 +24613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:05:28</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44382.71212962963</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25354,10 +24690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:04:29</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44382.71144675926</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25425,10 +24759,8 @@
           <t>4848015632</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:03:59</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44382.71109953704</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25496,10 +24828,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:03:31</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44382.71077546296</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25568,10 +24898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:03:21</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44382.71065972222</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25648,10 +24976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:02:34</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44382.71011574074</v>
       </c>
       <c r="I346" t="n">
         <v>4</v>
@@ -25727,10 +25053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-05 17:01:24</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44382.70930555555</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25798,10 +25122,8 @@
           <t>4847742664</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:59:53</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44382.70825231481</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25880,10 +25202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:59:51</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44382.70822916667</v>
       </c>
       <c r="I349" t="n">
         <v>7</v>
@@ -25947,10 +25267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:59:32</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44382.70800925926</v>
       </c>
       <c r="I350" t="n">
         <v>4</v>
@@ -26015,10 +25333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:59:20</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44382.70787037037</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26082,10 +25398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:58:53</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44382.70755787037</v>
       </c>
       <c r="I352" t="n">
         <v>4</v>
@@ -26149,10 +25463,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:57:18</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44382.70645833333</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26220,10 +25532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:57:10</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44382.70636574074</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26295,10 +25605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:57:02</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44382.70627314815</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26374,10 +25682,8 @@
           <t>4847976558</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:56:39</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44382.70600694444</v>
       </c>
       <c r="I356" t="n">
         <v>3</v>
@@ -26449,10 +25755,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:55:42</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44382.70534722223</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26524,10 +25828,8 @@
           <t>4847961855</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:53:47</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44382.7040162037</v>
       </c>
       <c r="I358" t="n">
         <v>11</v>
@@ -26591,10 +25893,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:53:26</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44382.70377314815</v>
       </c>
       <c r="I359" t="n">
         <v>4</v>
@@ -26658,10 +25958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:52:21</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44382.70302083333</v>
       </c>
       <c r="I360" t="n">
         <v>5</v>
@@ -26729,10 +26027,8 @@
           <t>4847598664</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:47:53</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44382.69991898148</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26796,10 +26092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:47:13</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44382.69945601852</v>
       </c>
       <c r="I362" t="n">
         <v>4</v>
@@ -26868,10 +26162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:47:10</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44382.6994212963</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26934,10 +26226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:47:05</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44382.69936342593</v>
       </c>
       <c r="I364" t="n">
         <v>7</v>
@@ -27013,10 +26303,8 @@
           <t>4847919830</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:46:37</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44382.69903935185</v>
       </c>
       <c r="I365" t="n">
         <v>4</v>
@@ -27084,10 +26372,8 @@
           <t>4847918449</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:45:47</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44382.69846064815</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27159,10 +26445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:45:42</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44382.69840277778</v>
       </c>
       <c r="I367" t="n">
         <v>124</v>
@@ -27226,10 +26510,8 @@
           <t>4847642137</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:45:16</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44382.69810185185</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27301,10 +26583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:45:01</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44382.69792824074</v>
       </c>
       <c r="I369" t="n">
         <v>6</v>
@@ -27380,10 +26660,8 @@
           <t>4847773326</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:44:46</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44382.69775462963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27451,10 +26729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:43:34</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44382.69692129629</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27526,10 +26802,8 @@
           <t>4847911703</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:42:47</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44382.69637731482</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27597,10 +26871,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:41:07</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44382.69521990741</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27668,10 +26940,8 @@
           <t>4847879637</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:38:03</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44382.69309027777</v>
       </c>
       <c r="I374" t="n">
         <v>18</v>
@@ -27739,10 +27009,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:37:52</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44382.69296296296</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27814,10 +27082,8 @@
           <t>4847871192</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:35:24</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44382.69125</v>
       </c>
       <c r="I376" t="n">
         <v>3</v>
@@ -27889,10 +27155,8 @@
           <t>4847864003</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:34:39</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44382.69072916666</v>
       </c>
       <c r="I377" t="n">
         <v>5</v>
@@ -27968,10 +27232,8 @@
           <t>4847742664</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:34:21</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44382.69052083333</v>
       </c>
       <c r="I378" t="n">
         <v>4</v>
@@ -28039,10 +27301,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:34:12</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44382.69041666666</v>
       </c>
       <c r="I379" t="n">
         <v>4</v>
@@ -28110,10 +27370,8 @@
           <t>4847868120</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:34:06</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44382.69034722223</v>
       </c>
       <c r="I380" t="n">
         <v>3</v>
@@ -28185,10 +27443,8 @@
           <t>4847861471</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:33:02</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44382.68960648148</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28257,10 +27513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:32:45</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44382.68940972222</v>
       </c>
       <c r="I382" t="n">
         <v>5</v>
@@ -28336,10 +27590,8 @@
           <t>4847642137</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:32:00</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44382.68888888889</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28403,10 +27655,8 @@
           <t>4847854685</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:31:59</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44382.68887731482</v>
       </c>
       <c r="I384" t="n">
         <v>9</v>
@@ -28478,10 +27728,8 @@
           <t>4847849797</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:31:57</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44382.68885416666</v>
       </c>
       <c r="I385" t="n">
         <v>4</v>
@@ -28553,10 +27801,8 @@
           <t>4847531028</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:31:45</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44382.68871527778</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -28632,10 +27878,8 @@
           <t>4847844729</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:31:26</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44382.68849537037</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28699,10 +27943,8 @@
           <t>4847853328</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:31:10</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44382.68831018519</v>
       </c>
       <c r="I388" t="n">
         <v>32</v>
@@ -28766,10 +28008,8 @@
           <t>4847848163</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:30:53</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44382.68811342592</v>
       </c>
       <c r="I389" t="n">
         <v>10</v>
@@ -28841,10 +28081,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:30:46</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44382.68803240741</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28920,10 +28158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:28:22</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44382.68636574074</v>
       </c>
       <c r="I391" t="n">
         <v>4</v>
@@ -28991,10 +28227,8 @@
           <t>4847821343</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:23:41</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44382.68311342593</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29066,10 +28300,8 @@
           <t>4847808972</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:22:12</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44382.68208333333</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29137,10 +28369,8 @@
           <t>4847808615</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:21:58</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44382.68192129629</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29212,10 +28442,8 @@
           <t>4847806898</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:21:46</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44382.68178240741</v>
       </c>
       <c r="I395" t="n">
         <v>3</v>
@@ -29287,10 +28515,8 @@
           <t>4847798680</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:21:27</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44382.6815625</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29358,10 +28584,8 @@
           <t>4847806898</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:20:54</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44382.68118055556</v>
       </c>
       <c r="I397" t="n">
         <v>5</v>
@@ -29430,10 +28654,8 @@
           <t>4847802364</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:20:40</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44382.68101851852</v>
       </c>
       <c r="I398" t="n">
         <v>3</v>
@@ -29508,10 +28730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:19:42</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44382.68034722222</v>
       </c>
       <c r="I399" t="n">
         <v>192</v>
@@ -29579,10 +28799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:19:20</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44382.68009259259</v>
       </c>
       <c r="I400" t="n">
         <v>58</v>
@@ -29650,10 +28868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:18:56</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44382.67981481482</v>
       </c>
       <c r="I401" t="n">
         <v>6</v>
@@ -29717,10 +28933,8 @@
           <t>4847793301</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:18:36</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44382.67958333333</v>
       </c>
       <c r="I402" t="n">
         <v>3</v>
@@ -29792,10 +29006,8 @@
           <t>4847778593</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:15:35</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44382.67748842593</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29863,10 +29075,8 @@
           <t>4847778328</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:15:26</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44382.67738425926</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29938,10 +29148,8 @@
           <t>4847769525</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:15:24</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44382.67736111111</v>
       </c>
       <c r="I405" t="n">
         <v>4</v>
@@ -30017,10 +29225,8 @@
           <t>4847773326</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:14:54</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44382.67701388889</v>
       </c>
       <c r="I406" t="n">
         <v>3</v>
@@ -30088,10 +29294,8 @@
           <t>4847771953</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:14:01</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44382.67640046297</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30167,10 +29371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:13:38</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44382.67613425926</v>
       </c>
       <c r="I408" t="n">
         <v>22</v>
@@ -30246,10 +29448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:12:56</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44382.67564814815</v>
       </c>
       <c r="I409" t="n">
         <v>2</v>
@@ -30317,10 +29517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:12:12</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44382.67513888889</v>
       </c>
       <c r="I410" t="n">
         <v>400</v>
@@ -30380,10 +29578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:12:08</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44382.6750925926</v>
       </c>
       <c r="I411" t="n">
         <v>6</v>
@@ -30447,10 +29643,8 @@
           <t>4847598664</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:11:42</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44382.67479166666</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30526,10 +29720,8 @@
           <t>4847642137</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:11:38</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44382.67474537037</v>
       </c>
       <c r="I413" t="n">
         <v>11</v>
@@ -30593,10 +29785,8 @@
           <t>4847761829</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:11:13</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44382.67445601852</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30668,10 +29858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:08:25</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44382.67251157408</v>
       </c>
       <c r="I415" t="n">
         <v>17</v>
@@ -30748,10 +29936,8 @@
           <t>4847747417</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:08:19</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44382.67244212963</v>
       </c>
       <c r="I416" t="n">
         <v>4</v>
@@ -30819,10 +30005,8 @@
           <t>4847742664</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:08:00</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44382.67222222222</v>
       </c>
       <c r="I417" t="n">
         <v>13</v>
@@ -30893,10 +30077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:07:42</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44382.67201388889</v>
       </c>
       <c r="I418" t="n">
         <v>7</v>
@@ -30969,10 +30151,8 @@
           <t>4847746366</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:07:36</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44382.67194444445</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31063,10 +30243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:07:31</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44382.67188657408</v>
       </c>
       <c r="I420" t="n">
         <v>10</v>
@@ -31138,10 +30316,8 @@
           <t>4847737708</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:07:24</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44382.67180555555</v>
       </c>
       <c r="I421" t="n">
         <v>4</v>
@@ -31209,10 +30385,8 @@
           <t>4847598061</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:05:35</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44382.67054398148</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31284,10 +30458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:05:26</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44382.67043981481</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31359,10 +30531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:03:39</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44382.66920138889</v>
       </c>
       <c r="I424" t="n">
         <v>7</v>
@@ -31434,10 +30604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-05 16:02:35</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44382.66846064815</v>
       </c>
       <c r="I425" t="n">
         <v>38</v>
@@ -31497,10 +30665,8 @@
           <t>4847703511</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:59:25</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44382.66626157407</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31588,10 +30754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:59:17</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44382.66616898148</v>
       </c>
       <c r="I427" t="n">
         <v>72</v>
@@ -31667,10 +30831,8 @@
           <t>4847703511</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:59:04</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44382.66601851852</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31742,10 +30904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:58:48</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44382.66583333333</v>
       </c>
       <c r="I429" t="n">
         <v>3</v>
@@ -31809,10 +30969,8 @@
           <t>4847697662</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:57:58</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44382.66525462963</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31884,10 +31042,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:57:34</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44382.66497685185</v>
       </c>
       <c r="I431" t="n">
         <v>8</v>
@@ -31963,10 +31119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:57:08</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44382.66467592592</v>
       </c>
       <c r="I432" t="n">
         <v>4</v>
@@ -32034,10 +31188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:56:36</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44382.66430555555</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -32109,10 +31261,8 @@
           <t>4847691885</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:56:21</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44382.66413194445</v>
       </c>
       <c r="I434" t="n">
         <v>4</v>
@@ -32180,10 +31330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:55:45</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44382.66371527778</v>
       </c>
       <c r="I435" t="n">
         <v>6</v>
@@ -32251,10 +31399,8 @@
           <t>4847684102</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:55:30</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44382.66354166667</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32318,10 +31464,8 @@
           <t>4847682465</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:54:23</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44382.66276620371</v>
       </c>
       <c r="I437" t="n">
         <v>22</v>
@@ -32385,10 +31529,8 @@
           <t>4847514828</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:54:06</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44382.66256944444</v>
       </c>
       <c r="I438" t="n">
         <v>22</v>
@@ -32460,10 +31602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:53:19</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44382.66202546296</v>
       </c>
       <c r="I439" t="n">
         <v>9</v>
@@ -32527,10 +31667,8 @@
           <t>4847680199</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:52:51</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44382.66170138889</v>
       </c>
       <c r="I440" t="n">
         <v>4</v>
@@ -32602,10 +31740,8 @@
           <t>4847642137</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:51:59</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44382.66109953704</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32673,10 +31809,8 @@
           <t>4847625754</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:51:54</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44382.66104166667</v>
       </c>
       <c r="I442" t="n">
         <v>5</v>
@@ -32744,10 +31878,8 @@
           <t>4847672239</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:51:30</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44382.66076388889</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32819,10 +31951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:51:15</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44382.66059027778</v>
       </c>
       <c r="I444" t="n">
         <v>156</v>
@@ -32890,10 +32020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:50:39</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44382.66017361111</v>
       </c>
       <c r="I445" t="n">
         <v>4</v>
@@ -32965,10 +32093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:50:35</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44382.66012731481</v>
       </c>
       <c r="I446" t="n">
         <v>15</v>
@@ -33036,10 +32162,8 @@
           <t>4847670302</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:50:10</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44382.65983796296</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33107,10 +32231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:50:08</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44382.65981481481</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33179,10 +32301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:50:01</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44382.6597337963</v>
       </c>
       <c r="I449" t="n">
         <v>5</v>
@@ -33246,10 +32366,8 @@
           <t>4847620291</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:49:39</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44382.65947916666</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33321,10 +32439,8 @@
           <t>4847598664</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:49:26</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44382.6593287037</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33388,10 +32504,8 @@
           <t>4847658584</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:49:04</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44382.65907407407</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33459,10 +32573,8 @@
           <t>4847657003</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:48:01</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44382.65834490741</v>
       </c>
       <c r="I453" t="n">
         <v>23</v>
@@ -33530,10 +32642,8 @@
           <t>4847649184</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:47:24</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44382.65791666666</v>
       </c>
       <c r="I454" t="n">
         <v>7</v>
@@ -33605,10 +32715,8 @@
           <t>4847652220</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:47:22</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44382.65789351852</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33668,10 +32776,8 @@
           <t>4847642137</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:46:44</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44382.6574537037</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33743,10 +32849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:45:54</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44382.656875</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33818,10 +32922,8 @@
           <t>4847598664</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:45:06</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44382.65631944445</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33885,10 +32987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:44:46</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44382.65608796296</v>
       </c>
       <c r="I459" t="n">
         <v>8</v>
@@ -33956,10 +33056,8 @@
           <t>4847642137</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:44:44</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44382.65606481482</v>
       </c>
       <c r="I460" t="n">
         <v>56</v>
@@ -34035,10 +33133,8 @@
           <t>4847610922</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:44:00</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44382.65555555555</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34098,10 +33194,8 @@
           <t>4847636476</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:43:24</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44382.65513888889</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34165,10 +33259,8 @@
           <t>4847625754</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:43:06</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44382.65493055555</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34228,10 +33320,8 @@
           <t>4847598664</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:42:49</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44382.6547337963</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34307,10 +33397,8 @@
           <t>4847626133</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:40:47</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44382.65332175926</v>
       </c>
       <c r="I465" t="n">
         <v>4</v>
@@ -34378,10 +33466,8 @@
           <t>4847625754</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:40:30</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44382.653125</v>
       </c>
       <c r="I466" t="n">
         <v>9</v>
@@ -34449,10 +33535,8 @@
           <t>4847598664</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:39:48</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44382.65263888889</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34516,10 +33600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:39:37</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44382.65251157407</v>
       </c>
       <c r="I468" t="n">
         <v>6</v>
@@ -34583,10 +33665,8 @@
           <t>4847620291</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:39:11</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44382.65221064815</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34663,10 +33743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:38:15</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44382.6515625</v>
       </c>
       <c r="I470" t="n">
         <v>2</v>
@@ -34742,10 +33820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:37:30</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44382.65104166666</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -34821,10 +33897,8 @@
           <t>4847610922</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:37:10</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44382.65081018519</v>
       </c>
       <c r="I472" t="n">
         <v>2</v>
@@ -34900,10 +33974,8 @@
           <t>4847607290</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:37:03</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44382.65072916666</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -34979,10 +34051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:36:32</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44382.65037037037</v>
       </c>
       <c r="I474" t="n">
         <v>6</v>
@@ -35058,10 +34128,8 @@
           <t>4847598664</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:35:37</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44382.64973379629</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35137,10 +34205,8 @@
           <t>4847598061</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:35:11</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44382.64943287037</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35222,10 +34288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:33:36</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44382.64833333333</v>
       </c>
       <c r="I477" t="n">
         <v>5</v>
@@ -35285,10 +34349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:33:26</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44382.64821759259</v>
       </c>
       <c r="I478" t="n">
         <v>12</v>
@@ -35367,10 +34429,8 @@
           <t>4847588769</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:32:51</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44382.6478125</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35434,10 +34494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:32:32</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44382.64759259259</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35497,10 +34555,8 @@
           <t>4847588225</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:32:26</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44382.64752314815</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35578,10 +34634,8 @@
           <t>4847570546</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:32:14</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44382.64738425926</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35645,10 +34699,8 @@
           <t>4847590435</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:32:06</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44382.64729166667</v>
       </c>
       <c r="I483" t="n">
         <v>2</v>
@@ -35724,10 +34776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:30:16</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44382.64601851852</v>
       </c>
       <c r="I484" t="n">
         <v>6</v>
@@ -35803,10 +34853,8 @@
           <t>4847580556</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:29:48</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44382.64569444444</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35874,10 +34922,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:29:39</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44382.64559027777</v>
       </c>
       <c r="I486" t="n">
         <v>18</v>
@@ -35954,10 +35000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:28:09</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44382.64454861111</v>
       </c>
       <c r="I487" t="n">
         <v>10</v>
@@ -36033,10 +35077,8 @@
           <t>4847570546</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:27:54</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44382.644375</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -36100,10 +35142,8 @@
           <t>4847540949</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:27:19</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44382.64396990741</v>
       </c>
       <c r="I489" t="n">
         <v>3</v>
@@ -36167,10 +35207,8 @@
           <t>4847570546</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:26:51</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44382.64364583333</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -36246,10 +35284,8 @@
           <t>4847565386</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:26:08</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44382.64314814815</v>
       </c>
       <c r="I491" t="n">
         <v>3</v>
@@ -36325,10 +35361,8 @@
           <t>4847539401</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:26:05</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44382.64311342593</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36396,10 +35430,8 @@
           <t>4847539401</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:25:32</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44382.64273148148</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36468,10 +35500,8 @@
           <t>4847556941</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:24:11</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44382.64179398148</v>
       </c>
       <c r="I494" t="n">
         <v>18</v>
@@ -36543,10 +35573,8 @@
           <t>4847463950</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:23:12</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44382.64111111111</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36622,10 +35650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:22:51</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44382.64086805555</v>
       </c>
       <c r="I496" t="n">
         <v>7</v>
@@ -36694,10 +35720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:22:25</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44382.64056712963</v>
       </c>
       <c r="I497" t="n">
         <v>347</v>
@@ -36765,10 +35789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:22:17</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44382.64047453704</v>
       </c>
       <c r="I498" t="n">
         <v>4</v>
@@ -36844,10 +35866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:22:06</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44382.64034722222</v>
       </c>
       <c r="I499" t="n">
         <v>9</v>
@@ -36930,10 +35950,8 @@
           <t>4847539401</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:21:53</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44382.64019675926</v>
       </c>
       <c r="I500" t="n">
         <v>4</v>
@@ -37009,10 +36027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:21:51</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44382.64017361111</v>
       </c>
       <c r="I501" t="n">
         <v>6</v>
@@ -37088,10 +36104,8 @@
           <t>4847537425</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:20:28</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44382.63921296296</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37159,10 +36173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:20:20</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44382.63912037037</v>
       </c>
       <c r="I503" t="n">
         <v>25</v>
@@ -37230,10 +36242,8 @@
           <t>4847540949</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:19:48</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44382.63875</v>
       </c>
       <c r="I504" t="n">
         <v>4</v>
@@ -37293,10 +36303,8 @@
           <t>4847536015</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:19:28</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44382.63851851852</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37368,10 +36376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:18:53</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44382.63811342593</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37447,10 +36453,8 @@
           <t>4847531028</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:18:19</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44382.6377199074</v>
       </c>
       <c r="I507" t="n">
         <v>13</v>
@@ -37518,10 +36522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:18:08</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44382.63759259259</v>
       </c>
       <c r="I508" t="n">
         <v>7</v>
@@ -37597,10 +36599,8 @@
           <t>4847463950</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:17:02</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44382.6368287037</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37672,10 +36672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:16:31</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44382.6364699074</v>
       </c>
       <c r="I510" t="n">
         <v>6</v>
@@ -37751,10 +36749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:16:15</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44382.63628472222</v>
       </c>
       <c r="I511" t="n">
         <v>117</v>
@@ -37822,10 +36818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:15:34</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44382.63581018519</v>
       </c>
       <c r="I512" t="n">
         <v>10</v>
@@ -37893,10 +36887,8 @@
           <t>4847514828</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:15:23</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44382.63568287037</v>
       </c>
       <c r="I513" t="n">
         <v>42</v>
@@ -37972,10 +36964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:15:05</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44382.63547453703</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38047,10 +37037,8 @@
           <t>4847514216</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:14:57</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44382.63538194444</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -38122,10 +37110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:13:52</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44382.63462962963</v>
       </c>
       <c r="I516" t="n">
         <v>11</v>
@@ -38193,10 +37179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:11:57</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44382.63329861111</v>
       </c>
       <c r="I517" t="n">
         <v>12</v>
@@ -38264,10 +37248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:09:04</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44382.6312962963</v>
       </c>
       <c r="I518" t="n">
         <v>25</v>
@@ -38340,10 +37322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:08:47</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44382.63109953704</v>
       </c>
       <c r="I519" t="n">
         <v>235</v>
@@ -38403,10 +37383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:08:46</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44382.63108796296</v>
       </c>
       <c r="I520" t="n">
         <v>5</v>
@@ -38482,10 +37460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:07:50</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44382.63043981481</v>
       </c>
       <c r="I521" t="n">
         <v>5</v>
@@ -38553,10 +37529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:07:37</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44382.63028935185</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38616,10 +37590,8 @@
           <t>4847484012</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:07:33</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44382.63024305556</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38683,10 +37655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:07:18</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44382.63006944444</v>
       </c>
       <c r="I524" t="n">
         <v>8</v>
@@ -38750,10 +37720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:07:02</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44382.62988425926</v>
       </c>
       <c r="I525" t="n">
         <v>4</v>
@@ -38817,10 +37785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:06:12</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44382.62930555556</v>
       </c>
       <c r="I526" t="n">
         <v>5</v>
@@ -38896,10 +37862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:06:06</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44382.62923611111</v>
       </c>
       <c r="I527" t="n">
         <v>4</v>
@@ -38967,10 +37931,8 @@
           <t>4847476478</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:05:44</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44382.62898148148</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39046,10 +38008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:05:42</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44382.62895833333</v>
       </c>
       <c r="I529" t="n">
         <v>2</v>
@@ -39117,10 +38077,8 @@
           <t>4847475445</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:04:59</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44382.62846064815</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39194,10 +38152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:04:03</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44382.6278125</v>
       </c>
       <c r="I531" t="n">
         <v>3</v>
@@ -39273,10 +38229,8 @@
           <t>4847463950</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:55</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44382.62771990741</v>
       </c>
       <c r="I532" t="n">
         <v>6</v>
@@ -39352,10 +38306,8 @@
           <t>4847468627</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:48</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44382.62763888889</v>
       </c>
       <c r="I533" t="n">
         <v>9</v>
@@ -39415,10 +38367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:41</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44382.62755787037</v>
       </c>
       <c r="I534" t="n">
         <v>5</v>
@@ -39486,10 +38436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:34</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44382.62747685185</v>
       </c>
       <c r="I535" t="n">
         <v>26</v>
@@ -39565,10 +38513,8 @@
           <t>4847463343</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:27</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44382.62739583333</v>
       </c>
       <c r="I536" t="n">
         <v>2</v>
@@ -39644,10 +38590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:22</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44382.62733796296</v>
       </c>
       <c r="I537" t="n">
         <v>2</v>
@@ -39711,10 +38655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:18</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44382.62729166666</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39774,10 +38716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:11</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44382.62721064815</v>
       </c>
       <c r="I539" t="n">
         <v>7</v>
@@ -39863,10 +38803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:03:04</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44382.62712962963</v>
       </c>
       <c r="I540" t="n">
         <v>13</v>
@@ -39934,10 +38872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:02:53</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44382.62700231482</v>
       </c>
       <c r="I541" t="n">
         <v>4</v>
@@ -40001,10 +38937,8 @@
           <t>4847462309</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:02:42</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44382.626875</v>
       </c>
       <c r="I542" t="n">
         <v>2</v>
@@ -40080,10 +39014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:02:21</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44382.62663194445</v>
       </c>
       <c r="I543" t="n">
         <v>4</v>
@@ -40159,10 +39091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:02:07</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44382.62646990741</v>
       </c>
       <c r="I544" t="n">
         <v>870</v>
@@ -40234,10 +39164,8 @@
           <t>4847461464</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:02:06</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44382.62645833333</v>
       </c>
       <c r="I545" t="n">
         <v>7</v>
@@ -40313,10 +39241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:02:01</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44382.62640046296</v>
       </c>
       <c r="I546" t="n">
         <v>41</v>
@@ -40392,10 +39318,8 @@
           <t>4847466074</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:58</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44382.62636574074</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40467,10 +39391,8 @@
           <t>4847461004</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:45</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44382.62621527778</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40546,10 +39468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:42</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44382.62618055556</v>
       </c>
       <c r="I549" t="n">
         <v>3</v>
@@ -40625,10 +39545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:21</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44382.6259375</v>
       </c>
       <c r="I550" t="n">
         <v>1</v>
@@ -40704,10 +39622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:18</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44382.62590277778</v>
       </c>
       <c r="I551" t="n">
         <v>4</v>
@@ -40767,10 +39683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:14</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44382.62585648148</v>
       </c>
       <c r="I552" t="n">
         <v>6</v>
@@ -40846,10 +39760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:13</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44382.62584490741</v>
       </c>
       <c r="I553" t="n">
         <v>6</v>
@@ -40921,10 +39833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:07</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44382.62577546296</v>
       </c>
       <c r="I554" t="n">
         <v>33</v>
@@ -40998,10 +39908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:06</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44382.62576388889</v>
       </c>
       <c r="I555" t="n">
         <v>3</v>
@@ -41077,10 +39985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:01:05</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44382.62575231482</v>
       </c>
       <c r="I556" t="n">
         <v>3</v>
@@ -41152,10 +40058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:00:50</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44382.6255787037</v>
       </c>
       <c r="I557" t="n">
         <v>3</v>
@@ -41223,10 +40127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:00:37</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44382.62542824074</v>
       </c>
       <c r="I558" t="n">
         <v>3</v>
@@ -41298,10 +40200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:00:37</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44382.62542824074</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41377,10 +40277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:00:24</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44382.62527777778</v>
       </c>
       <c r="I560" t="n">
         <v>12</v>
@@ -41456,10 +40354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:00:20</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44382.62523148148</v>
       </c>
       <c r="I561" t="n">
         <v>3</v>
@@ -41527,10 +40423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-05 15:00:14</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44382.62516203704</v>
       </c>
       <c r="I562" t="n">
         <v>3</v>
